--- a/www/terminologies/CodeSystem-TRE-R341-StatutCommunication.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R341-StatutCommunication.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -291,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -391,65 +397,73 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -466,52 +480,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -529,27 +543,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/www/terminologies/CodeSystem-TRE-R341-StatutCommunication.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R341-StatutCommunication.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>Date de fin d'exploitation d'un code concept</t>
+  </si>
+  <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
   </si>
   <si>
     <t>Level</t>
@@ -472,7 +502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,6 +555,48 @@
         <v>43</v>
       </c>
       <c r="D4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>39</v>
       </c>
     </row>
@@ -543,27 +615,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2"/>
     </row>
